--- a/medicine/Enfance/Little_Folks/Little_Folks.xlsx
+++ b/medicine/Enfance/Little_Folks/Little_Folks.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
-Little Folks est un magazine illustré britannique pour la jeunesse fondé en 1871 et publié par Cassell. Le titre disparaît en 1933[1].
+Little Folks est un magazine illustré britannique pour la jeunesse fondé en 1871 et publié par Cassell. Le titre disparaît en 1933.
 </t>
         </is>
       </c>
@@ -512,7 +524,9 @@
           <t>Histoire du support</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Little Folks, a magazine for the young paraît pour la première fois en janvier 1871 à Londres suivant un rythme hebdomadaire d'un format de 16 pages, puis mensuel de 64 pages en moyenne à partir de 1877. Le sous-titre devient successivement « the magazine for the boys and girls », puis « the young people's magazine ». L'éditeur est Cassell Petter Galpin &amp; Co., qui devient ensuite Cassell &amp; Co. Ltd, l'un des plus importants groupes de presse britannique de son temps. L'expression « little folks » est ici un jeu de mots signifiant à la fois les « tout petits, les enfants », et aussi les petites bêtes (insectes, etc.) et les créatures légendaires peuplant les forêts et que l'on retrouve dans les contes. Le prix de vente était de 6 pence dans sa version mensuelle avant 1914, grimpant jusqu'à 1 shilling dans les années 1920. Dès le départ, les livraisons hebdomadaires sont proposées à la vente deux fois par an réunies sous forme de volume cartonné illustré, constituant des albums.
 Illustré au départ de gravures sur bois tirées en noir, la couleur fait son apparition à la fin des années 1880. Les illustrateurs qui contribuèrent à ce magazine sont fort nombreux : durant les premières décennies, ils témoignent d'un style victorien. Chaque numéro est introduit, outre la couverture originale, par un frontispice, puis se succèdent une dizaine de contes ou nouvelles agrémentées de six hors-textes en couleur, mais aussi de feuilletons, de partitions pour chanson et piano, de casse-têtes, de chroniques scientifiques amusantes, etc.
@@ -546,7 +560,9 @@
           <t>Rédacteurs en chef</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>vers 1876 : H. G. Bonavia Hunt, futur rédacteur en chef du Cassell's Magazine
 1890 – 1894 : Ernest Foster
@@ -580,7 +596,9 @@
           <t>Novellistes</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Esther Glen (en), Joan Lindsay, Elsie J. Oxenham (en), Bella Sidney Woolf (en)...
 </t>
@@ -611,7 +629,9 @@
           <t>Illustrateurs</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">Ernest Aris, Mabel Lucie Attwell, Stuart Barker, Charles H. Bennett, Harold Copping, Charles Folkard (d), Kate Greenaway, Evelyn Stuart Hardy, Frank Hart (1878-1959), H. R. Millar (en), Harry B. Neilson, Rosa Clementina Petherick (en), Arthur Rackham, Harry Rountree (en), Louis Wain...
 </t>
